--- a/Vacantes/Vacantes_ColegioToay.xlsx
+++ b/Vacantes/Vacantes_ColegioToay.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R0bb69e8a0a1b48e3"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rff0575f7f57b49e6"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -56,111 +56,147 @@
     <x:t>Carlos Chavez</x:t>
   </x:si>
   <x:si>
+    <x:t>María Aguilera</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manuel Rodríguez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pedro Torres</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Julieta Ramos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cecilia Peralta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sofia Martinez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlos Sánchez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ana Aguilera</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Juan Santos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Julieta Romero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manuel Torres</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ana Pérez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Luisa Torres</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cecilia Pérez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Julieta Fernandez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manuel Carril</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Luisa Fernandez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manuel Chavez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manuel González</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Diego Santos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hugo Fernandez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sofia Rodríguez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlos Romero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Julieta Peralta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Julieta Sánchez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cecilia Aguilera</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Julieta Pérez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlos Martinez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>María Fernandez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manuel Pérez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>María Gómez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Julieta Santos</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Juan Chavez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>María Peralta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlos Pérez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Julieta Chavez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Luisa Aguilera</x:t>
+  </x:si>
+  <x:si>
     <x:t>Victoria Rodríguez</x:t>
   </x:si>
   <x:si>
     <x:t>Juan Rodríguez</x:t>
   </x:si>
   <x:si>
-    <x:t>María Aguilera</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manuel Torres</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manuel Rodríguez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pedro Torres</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Julieta Ramos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cecilia Peralta</x:t>
-  </x:si>
-  <x:si>
     <x:t>Cecilia Chavez</x:t>
   </x:si>
   <x:si>
-    <x:t>Sofia Martinez</x:t>
-  </x:si>
-  <x:si>
     <x:t>Luisa González</x:t>
   </x:si>
   <x:si>
-    <x:t>Juan Vargas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlos Sánchez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ana Aguilera</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Juan Santos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Luisa Pérez</x:t>
-  </x:si>
-  <x:si>
     <x:t>Hugo González</x:t>
   </x:si>
   <x:si>
-    <x:t>Julieta Romero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Luisa Torres</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ana Romero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ana Pérez</x:t>
-  </x:si>
-  <x:si>
     <x:t>Fernando Martinez</x:t>
   </x:si>
   <x:si>
-    <x:t>Cecilia Pérez</x:t>
-  </x:si>
-  <x:si>
     <x:t>Carlos Santos</x:t>
   </x:si>
   <x:si>
-    <x:t>Julieta Fernandez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Victoria Aguilera</x:t>
-  </x:si>
-  <x:si>
     <x:t>Manuel Aguilera</x:t>
   </x:si>
   <x:si>
-    <x:t>María Fernandez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manuel Carril</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Diego Santos</x:t>
-  </x:si>
-  <x:si>
     <x:t>Fernando Peralta</x:t>
   </x:si>
   <x:si>
-    <x:t>Luisa Fernandez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manuel Chavez</x:t>
-  </x:si>
-  <x:si>
     <x:t>Pedro Vargas</x:t>
   </x:si>
   <x:si>
-    <x:t>Manuel González</x:t>
-  </x:si>
-  <x:si>
     <x:t>Luisa Romero</x:t>
   </x:si>
   <x:si>
@@ -182,9 +218,6 @@
     <x:t>Manuel Gómez</x:t>
   </x:si>
   <x:si>
-    <x:t>Hugo Fernandez</x:t>
-  </x:si>
-  <x:si>
     <x:t>Manuel Santos</x:t>
   </x:si>
   <x:si>
@@ -194,27 +227,9 @@
     <x:t>Diego Gómez</x:t>
   </x:si>
   <x:si>
-    <x:t>Carlos Romero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlos Gómez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Julieta Peralta</x:t>
-  </x:si>
-  <x:si>
     <x:t>Victoria Chavez</x:t>
   </x:si>
   <x:si>
-    <x:t>Cecilia Aguilera</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Julieta Pérez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlos Martinez</x:t>
-  </x:si>
-  <x:si>
     <x:t>Sofia Carril</x:t>
   </x:si>
   <x:si>
@@ -227,25 +242,10 @@
     <x:t>María Rodríguez</x:t>
   </x:si>
   <x:si>
-    <x:t>Manuel Pérez</x:t>
-  </x:si>
-  <x:si>
     <x:t>Pedro Rodríguez</x:t>
   </x:si>
   <x:si>
-    <x:t>Julieta Santos</x:t>
-  </x:si>
-  <x:si>
     <x:t>Luisa Peralta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>María Peralta</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlos Pérez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Julieta Chavez</x:t>
   </x:si>
   <x:si>
     <x:t>Alberto Carril</x:t>
@@ -761,10 +761,10 @@
     </x:row>
     <x:row r="13">
       <x:c r="A13">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B13" t="s">
-        <x:v>14</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C13">
         <x:v>6</x:v>
@@ -775,10 +775,10 @@
     </x:row>
     <x:row r="14">
       <x:c r="A14">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B14" t="s">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C14">
         <x:v>6</x:v>
@@ -789,24 +789,24 @@
     </x:row>
     <x:row r="15">
       <x:c r="A15">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B15" t="s">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C15">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D15">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="A16">
-        <x:v>44</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B16" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C16">
         <x:v>6</x:v>
@@ -817,133 +817,133 @@
     </x:row>
     <x:row r="17">
       <x:c r="A17">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B17" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C17">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D17">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="A18">
-        <x:v>49</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B18" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C18">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D18">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="A19">
-        <x:v>51</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B19" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C19">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D19">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="A20">
-        <x:v>52</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B20" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C20">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D20">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="21">
       <x:c r="A21">
-        <x:v>58</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B21" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C21">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D21">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="A22">
-        <x:v>60</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B22" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C22">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D22">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="A23">
-        <x:v>61</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B23" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C23">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D23">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="A24">
-        <x:v>66</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B24" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C24">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D24">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="25">
       <x:c r="A25">
-        <x:v>68</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B25" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C25">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D25">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="A26">
-        <x:v>74</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B26" t="s">
         <x:v>25</x:v>
@@ -957,63 +957,63 @@
     </x:row>
     <x:row r="27">
       <x:c r="A27">
-        <x:v>76</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B27" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C27">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D27">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="A28">
-        <x:v>78</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B28" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="C28">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D28">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="29">
       <x:c r="A29">
-        <x:v>84</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B29" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="C29">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D29">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="A30">
-        <x:v>88</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B30" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C30">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D30">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="A31">
-        <x:v>91</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B31" t="s">
         <x:v>30</x:v>
@@ -1027,108 +1027,108 @@
     </x:row>
     <x:row r="32">
       <x:c r="A32">
-        <x:v>95</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B32" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C32">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D32">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="A33">
-        <x:v>97</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B33" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C33">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D33">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="A34">
-        <x:v>98</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B34" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="C34">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D34">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35">
-        <x:v>100</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B35" t="s">
-        <x:v>17</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C35">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D35">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36">
-        <x:v>102</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B36" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C36">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D36">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="37">
       <x:c r="A37">
-        <x:v>103</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B37" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C37">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D37">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="38">
       <x:c r="A38">
-        <x:v>104</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B38" t="s">
-        <x:v>32</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C38">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D38">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="39">
       <x:c r="A39">
-        <x:v>105</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B39" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C39">
         <x:v>12</x:v>
@@ -1139,108 +1139,108 @@
     </x:row>
     <x:row r="40">
       <x:c r="A40">
-        <x:v>106</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B40" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C40">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D40">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="41">
       <x:c r="A41">
-        <x:v>107</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B41" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C41">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D41">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="42">
       <x:c r="A42">
-        <x:v>108</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B42" t="s">
-        <x:v>39</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C42">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D42">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="43">
       <x:c r="A43">
-        <x:v>109</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B43" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C43">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D43">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="44">
       <x:c r="A44">
-        <x:v>110</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B44" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C44">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D44">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="45">
       <x:c r="A45">
-        <x:v>113</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B45" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C45">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D45">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="46">
       <x:c r="A46">
-        <x:v>115</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B46" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C46">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D46">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="47">
       <x:c r="A47">
-        <x:v>116</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B47" t="s">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C47">
         <x:v>9</x:v>
@@ -1251,108 +1251,108 @@
     </x:row>
     <x:row r="48">
       <x:c r="A48">
-        <x:v>117</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B48" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C48">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D48">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="49">
       <x:c r="A49">
-        <x:v>118</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B49" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C49">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D49">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="50">
       <x:c r="A50">
-        <x:v>119</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B50" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C50">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D50">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="51">
       <x:c r="A51">
-        <x:v>120</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B51" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C51">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D51">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="52">
       <x:c r="A52">
-        <x:v>122</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B52" t="s">
-        <x:v>48</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C52">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D52">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="53">
       <x:c r="A53">
-        <x:v>124</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B53" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C53">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D53">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="54">
       <x:c r="A54">
-        <x:v>125</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B54" t="s">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C54">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D54">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="55">
       <x:c r="A55">
-        <x:v>128</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B55" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C55">
         <x:v>6</x:v>
@@ -1363,10 +1363,10 @@
     </x:row>
     <x:row r="56">
       <x:c r="A56">
-        <x:v>130</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B56" t="s">
-        <x:v>51</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C56">
         <x:v>6</x:v>
@@ -1377,122 +1377,122 @@
     </x:row>
     <x:row r="57">
       <x:c r="A57">
-        <x:v>133</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B57" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C57">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D57">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="58">
       <x:c r="A58">
-        <x:v>134</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B58" t="s">
-        <x:v>43</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C58">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D58">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="59">
       <x:c r="A59">
-        <x:v>135</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B59" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C59">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D59">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="60">
       <x:c r="A60">
-        <x:v>137</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B60" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C60">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D60">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="61">
       <x:c r="A61">
-        <x:v>138</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B61" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C61">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D61">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="62">
       <x:c r="A62">
-        <x:v>139</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B62" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C62">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D62">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="63">
       <x:c r="A63">
-        <x:v>140</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B63" t="s">
-        <x:v>11</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C63">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D63">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="64">
       <x:c r="A64">
-        <x:v>141</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B64" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C64">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D64">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="65">
       <x:c r="A65">
-        <x:v>143</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B65" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C65">
         <x:v>7</x:v>
@@ -1503,10 +1503,10 @@
     </x:row>
     <x:row r="66">
       <x:c r="A66">
-        <x:v>144</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B66" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C66">
         <x:v>6</x:v>
@@ -1517,63 +1517,63 @@
     </x:row>
     <x:row r="67">
       <x:c r="A67">
-        <x:v>149</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B67" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C67">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D67">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="68">
       <x:c r="A68">
-        <x:v>150</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B68" t="s">
-        <x:v>61</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C68">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D68">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="69">
       <x:c r="A69">
-        <x:v>152</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B69" t="s">
         <x:v>62</x:v>
       </x:c>
       <x:c r="C69">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D69">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="70">
       <x:c r="A70">
-        <x:v>153</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B70" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="C70">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D70">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="71">
       <x:c r="A71">
-        <x:v>157</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B71" t="s">
         <x:v>64</x:v>
@@ -1587,63 +1587,63 @@
     </x:row>
     <x:row r="72">
       <x:c r="A72">
-        <x:v>158</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B72" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="C72">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D72">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="73">
       <x:c r="A73">
-        <x:v>159</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B73" t="s">
-        <x:v>42</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C73">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D73">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="74">
       <x:c r="A74">
-        <x:v>160</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B74" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C74">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D74">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="75">
       <x:c r="A75">
-        <x:v>162</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B75" t="s">
-        <x:v>67</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C75">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D75">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="76">
       <x:c r="A76">
-        <x:v>163</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B76" t="s">
         <x:v>68</x:v>
@@ -1657,7 +1657,7 @@
     </x:row>
     <x:row r="77">
       <x:c r="A77">
-        <x:v>166</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B77" t="s">
         <x:v>69</x:v>
@@ -1671,24 +1671,24 @@
     </x:row>
     <x:row r="78">
       <x:c r="A78">
-        <x:v>167</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B78" t="s">
         <x:v>70</x:v>
       </x:c>
       <x:c r="C78">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D78">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="79">
       <x:c r="A79">
-        <x:v>170</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B79" t="s">
-        <x:v>62</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C79">
         <x:v>9</x:v>
@@ -1699,38 +1699,38 @@
     </x:row>
     <x:row r="80">
       <x:c r="A80">
-        <x:v>171</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B80" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C80">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D80">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="81">
       <x:c r="A81">
-        <x:v>174</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B81" t="s">
-        <x:v>23</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C81">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D81">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="82">
       <x:c r="A82">
-        <x:v>176</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B82" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C82">
         <x:v>7</x:v>
@@ -1741,24 +1741,24 @@
     </x:row>
     <x:row r="83">
       <x:c r="A83">
-        <x:v>177</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B83" t="s">
-        <x:v>65</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C83">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D83">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="84">
       <x:c r="A84">
-        <x:v>182</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B84" t="s">
-        <x:v>73</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C84">
         <x:v>9</x:v>
@@ -1769,10 +1769,10 @@
     </x:row>
     <x:row r="85">
       <x:c r="A85">
-        <x:v>184</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B85" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C85">
         <x:v>9</x:v>
@@ -1783,24 +1783,24 @@
     </x:row>
     <x:row r="86">
       <x:c r="A86">
-        <x:v>185</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B86" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C86">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D86">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="87">
       <x:c r="A87">
-        <x:v>188</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B87" t="s">
-        <x:v>75</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C87">
         <x:v>6</x:v>
@@ -1811,21 +1811,21 @@
     </x:row>
     <x:row r="88">
       <x:c r="A88">
-        <x:v>189</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B88" t="s">
-        <x:v>76</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C88">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D88">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="89">
       <x:c r="A89">
-        <x:v>190</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B89" t="s">
         <x:v>77</x:v>

--- a/Vacantes/Vacantes_ColegioToay.xlsx
+++ b/Vacantes/Vacantes_ColegioToay.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rff0575f7f57b49e6"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rfd3a411156b74da8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Vacantes/Vacantes_ColegioToay.xlsx
+++ b/Vacantes/Vacantes_ColegioToay.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rfd3a411156b74da8"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rf41df32d93674710"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Vacantes/Vacantes_ColegioToay.xlsx
+++ b/Vacantes/Vacantes_ColegioToay.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rf41df32d93674710"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R96034ef3a3e7475f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Vacantes/Vacantes_ColegioToay.xlsx
+++ b/Vacantes/Vacantes_ColegioToay.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R96034ef3a3e7475f"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R9aece60b9a81411e"/>
   </x:sheets>
 </x:workbook>
 </file>
